--- a/biology/Botanique/Grevillea_crithmifolia/Grevillea_crithmifolia.xlsx
+++ b/biology/Botanique/Grevillea_crithmifolia/Grevillea_crithmifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea crithmifolia est une espèce de plantes de la famille des Proteaceae, endémique dans le sud-ouest de l'Australie-Occidentale en Australie.
 C'est un buisson habituellement entre 0,6 et 2,5 mètres de hauteur et produisant des fleurs entre juin et septembre (du début de l'hiver au début du printemps) dans son aire de répartition. Les fleurs, roses en bouton, deviennent blanc crème en s'épanouissant.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Grevillea sternbergiana Benth.</t>
         </is>
